--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/36.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/0_fold/36.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-2.845240310042353</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>10.43836342454866</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>5.944409250192634</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-10.25981241491373</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-7.543469500939309</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-5.870925920557396</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-3.215049111017873</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10.30306947984339</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>5.674060149286002</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-10.76792531247038</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-7.427982659478015</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-5.822601887320655</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-3.735772265738321</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>10.11256376576721</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>5.293384956244133</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-11.15394149383221</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-7.406899880709365</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-6.090332326172594</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-4.38628996671131</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>9.874572929332079</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>4.817823327862178</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-11.83962038570362</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-7.405133801406596</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-6.210571340158924</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-5.138238230002607</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>9.599473887647328</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4.268110783507229</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-12.31990581048313</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-7.333038501238747</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-6.514068913017149</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-5.951353099757521</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>9.301997143077012</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>3.673682329148714</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-12.74599898681285</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-7.290461659285957</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-6.648006964444983</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-6.809184943615183</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>8.988160766703221</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>3.046563485291482</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-13.37491345699811</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-7.121833806383971</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-6.977154644141481</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-7.67982204612024</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>8.669639607406991</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>2.410083344047417</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-13.95239804787826</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-7.028662768570396</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-7.370487180753369</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-8.558701579797171</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>8.348102968153922</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>1.767577565093478</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-14.52467942212359</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-6.955959446728891</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-7.340255278888745</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-9.433046800272299</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>8.028225199966071</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1.128386600427634</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-14.95398781499876</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-6.879434866058273</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-7.377575058752949</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-10.29952371264991</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>7.711226039420499</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>0.4949477704168049</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-15.35879716349242</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-6.703487144601449</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-7.457802819351647</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-11.15778536629408</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>7.397232417839625</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-0.1324852863229716</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-16.11005288746891</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-6.549992321597506</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-7.373635509561216</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-11.99812782584985</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>7.089794504094167</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-0.7468184979590221</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-16.62473207233667</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-6.314303985601887</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-7.037201319132782</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-12.82509757702946</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>6.787248973825871</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-1.351375577505623</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-17.44696256943537</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-6.089895528530189</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-6.792406339776913</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-13.61865153499653</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>6.496928556824905</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-1.931504007362805</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-18.15373509323451</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.915299702674734</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-6.491017584427204</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-14.38039672983603</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>6.218245323764321</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-2.488378608512273</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-19.13213907343573</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-5.587637319762583</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-6.072147499525378</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-15.08801525777538</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.959364243219713</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-3.005683854652003</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-19.76036974404584</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-5.309729996532183</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-5.887111177698893</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-15.73144358941235</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.723967040955576</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-3.476062792354525</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-20.54028618001686</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-5.055245589983342</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-5.632639473731735</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-16.29313412199073</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.51847347872648</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-3.8866872287383</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-21.22523145909903</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-4.693348439048293</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-5.376734303546072</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-16.76046611488709</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5.347500833837734</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-4.228330758505992</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-22.07341011226168</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-4.453585777982005</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-5.256766754293963</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-17.12680092766943</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>5.213477842028329</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-4.496140196802897</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-22.69418691465515</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-4.265876067772831</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-5.165170580313408</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-17.38225186575611</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>5.120021534333007</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-4.68288786547739</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-23.20220924273164</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-4.02423963964141</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-5.249218710464424</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-17.53391810264288</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>5.064534689744978</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-4.793763622549879</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-23.61467624077228</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.954027218580123</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-5.185583404108554</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-17.58030091114374</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>5.047565615152817</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-4.827671821983357</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-23.97537372395724</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.824874800074847</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-5.209740454908616</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-17.53839673028236</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>5.062896191151613</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-4.79703772785088</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-24.20383976611821</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-3.838127021784834</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-5.104243300208661</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-17.41621342400068</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.107596753821766</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-4.707715497249779</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-24.34541344902001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-3.919897653217381</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-5.254250739684116</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-17.23418971795387</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>5.174189828826961</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-4.574646881403869</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-24.31979134308461</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-3.931341548887056</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-5.263702347198736</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-17.00078034806483</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5.259582264864604</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-4.404012723627662</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-24.18428128687908</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-3.984630423909148</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-5.246874844222621</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-16.73387544464887</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5.357228987033103</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-4.20889162192394</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-24.09814971125319</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-4.052477027668039</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-5.262252328252536</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-16.44430197085148</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5.463168968582242</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-3.997198638736348</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-23.98434010249242</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-4.142517250882734</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-5.228498005934126</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-16.13755169242777</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5.575393055996885</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-3.772948535018028</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-23.73169653760449</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-4.262850870017807</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-5.092365062813756</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-15.8247655099054</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5.689825369049257</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-3.54428587745586</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-23.42612416851491</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-4.342318640070572</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-4.961585271830387</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-15.50253731063655</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>5.807712028478009</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-3.308720623926747</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-23.03851849277638</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-4.383987177166193</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-4.805728098387038</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-15.17650868805399</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>5.926989066557311</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-3.070377067060298</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-22.79054378459036</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-4.390299336775525</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-4.593823388963829</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-14.83485945829293</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>6.051980878212301</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-2.820614049393604</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-22.27603668173489</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-4.493308480048449</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-4.511450394855683</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-14.48472244613034</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>6.180077931170019</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-2.564646029750514</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-21.86383233518669</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-4.564900132835397</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-4.278219151068489</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-14.11742288497425</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>6.314453874593307</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-2.296131311171593</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-21.5455621249796</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-4.518208375809199</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-4.128301096322593</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-13.73392068638295</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>6.454757526409297</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-2.015771637979994</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-21.09930365389373</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-4.636145528047973</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-4.017510379305343</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-13.33339253751174</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>6.601290094275012</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-1.722965126481371</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-20.71465960015622</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-4.595585346537298</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-3.701048710115332</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-12.91356178068539</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>6.754884489675551</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-1.416047423761616</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-20.16396998997946</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-4.69895482963044</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-3.551902012480087</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-12.4805622416075</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>6.913296662514261</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-1.099502669353663</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-19.76944933443121</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-4.627040941923804</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-3.365836110990889</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-12.03134807895296</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>7.077640928855906</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-0.7711041978521159</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-19.31012621583321</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-4.741663796183977</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-3.095387714251208</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-11.579410226065</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>7.242981652812572</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-0.4407145698291184</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-18.93719279587953</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-4.746064083827648</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-2.902104823486399</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-11.12198184452737</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>7.410331077691368</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-0.1063110852401741</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-18.35523860115381</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-4.874755930056969</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-2.854426346629815</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-10.67076563001834</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>7.575407791427948</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>0.2235509883103298</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-17.79560978328591</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-4.847874579468722</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-2.718839643523425</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-10.22689926983274</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>7.737795572987133</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>0.5480399433658334</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-17.471538597875</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.933034890313524</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-2.703263526761154</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-9.794265716397284</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>7.896073850577434</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>0.8643171435968268</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-17.1016618978765</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-5.004187508376988</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-2.52957906558883</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-9.377683070549525</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>8.048479929891458</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>1.168860311474821</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-16.50725439962969</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-5.004220643073101</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-2.415269238663335</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-8.975067865602576</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>8.195776043807355</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>1.463192567444987</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-16.06638934108695</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-5.08513971281557</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-2.402901040528618</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-8.593758836999442</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>8.335277327971941</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>1.741948921481198</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-15.86525716803627</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-5.047029013714973</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-2.313354094236872</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-8.226058133637974</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>8.46980002861466</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>2.010756895478251</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-15.21318408177578</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-5.03736693632872</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-2.476696411144512</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-7.881215350024087</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>8.595960196720977</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>2.262854563944302</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-14.80067632746908</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-5.080622625368104</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-2.568034362573004</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-7.555016645666128</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>8.7152994589395</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>2.501322459266027</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-14.51955318954691</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-5.150884748473558</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-2.64713653768835</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-7.250158916062968</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>8.826831160464993</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>2.724189013239973</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-14.06647936507949</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-5.138239720069824</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-2.653459679668358</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-6.968629552802655</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>8.929828217337013</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>2.930001341219914</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-13.57004540198863</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-5.159029256777883</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-2.903528358068286</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-6.708965518039814</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>9.024825879557268</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>3.119828998514012</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-13.34723995233724</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-5.217309045401842</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-2.987828089680287</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-6.475574422652808</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>9.110211629898242</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>3.290449796696877</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-13.04988223509757</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-5.286906817850252</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-3.137762697153879</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-6.264097181546362</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>9.187580232509111</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>3.445050449370708</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-12.67027837293059</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-5.238775358277989</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-3.31486364132273</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-6.080369176874481</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>9.254796822377484</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>3.579364994463702</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-12.53796994784849</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-5.332558973785935</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-3.422916537179003</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-5.921708418743063</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>9.312842601117477</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>3.695354103421747</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-12.05755772579676</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-5.359624221937603</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-3.568544124906003</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-5.790325562633124</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>9.36090880403874</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>3.79140167430208</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-11.98664182283665</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-5.462364145804617</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-3.762482503687588</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-5.687944674429334</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>9.398364684458514</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>3.866247326982341</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-11.83014228960557</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-5.413026583293878</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-3.844719765428623</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-5.613229851594351</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>9.425698980134102</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>3.920867674374162</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-11.5115324438479</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-5.542036522605874</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-3.93617358595099</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-5.569245536088094</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>9.441790569988926</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>3.9530224530591</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-11.3560246464245</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-5.536147658739372</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-4.082493077695698</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-5.553226987885079</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>9.447650929637266</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>3.96473282905094</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-11.36646277901218</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-5.628241404745607</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-4.117995368058842</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-5.568186499473386</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>9.442178016801478</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>3.95379666285578</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-11.24109650458384</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-5.664713593123467</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-4.219579457931379</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-5.613325712733479</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>9.425663909493215</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>3.92079759499069</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-11.07502377730054</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-5.792720379510671</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-4.25913385603459</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-5.690687660108993</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>9.397361167636058</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>3.864242064505246</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-11.20113272146615</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-5.83207445808287</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-4.36361467325399</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-5.806250544224215</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>9.355082675582267</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>3.779759700277263</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-11.3092636238213</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-5.895506691952242</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-4.327516484693776</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-5.958894742689504</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>9.299238045351011</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>3.66816900339594</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-11.04505433631778</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-5.913740715222665</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-4.21048869988054</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-6.158784265242321</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>9.226108790611578</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>3.522039564182331</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-11.19795373271276</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-6.003113274310704</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-3.996342751127244</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-6.406361652937542</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>9.135533008443192</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>3.341047862547177</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-11.39787227472939</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-6.056687936086762</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-3.968262703863146</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-6.708762540077039</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>9.024900138712807</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>3.119977385760599</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-11.60320234318517</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-6.225179522550987</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-3.862662922251473</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-7.069450829044822</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>8.892942918401348</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>2.856295844453942</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-11.65070150705163</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-6.210761787905262</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-3.614199858438092</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-7.490233689072665</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>8.739000197602502</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>2.548682105718236</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-12.1714624325117</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-6.261659166235471</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-3.577750752050716</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-7.98039197002718</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>8.559676592579166</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>2.190351394798337</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-12.42909184728207</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-6.266105428269998</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-3.428736476237042</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-8.531978864709055</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>8.357879429741557</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>1.787113233197641</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-12.83501972885563</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-6.3632199091046</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-3.148363063970625</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-9.159299140870667</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>8.12837533321488</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>1.32851010586964</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-13.35144237621635</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-6.424091245148218</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-3.058591000582209</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-9.855570552776049</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>7.873645576503602</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>0.8195001804728894</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-13.79812199538494</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-6.471748050198676</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-2.775128849327653</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-10.631170167208</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>7.58989372670561</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>0.2524972917582713</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-14.46113134637395</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-6.526681234515325</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-2.59185373772806</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-11.48853419520617</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>7.276228499998512</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-0.3742795548380212</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-15.07953522838741</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-6.636996578280941</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-2.48347640840894</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-12.43057327823921</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>6.931585042963785</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-1.062958186728531</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-16.00947095128454</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-6.695162052203314</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-2.470853298267699</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-13.47241302286237</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>6.550429677193776</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-1.824596194003297</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-16.90961837215922</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-6.844389540531735</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-2.258074604822121</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-14.60461836336032</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>6.136214206041495</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-2.652296062253785</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-17.8005594053763</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-6.96046286611421</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-2.20053070225851</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-15.85279495674332</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>5.679570841789209</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-3.564776833137696</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-18.89050875733446</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-7.019246302119072</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-2.071740549144243</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-17.20061709948412</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>5.18647231635802</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-4.550103584450318</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-19.70267245671411</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-7.120945382344469</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-2.146721095063196</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-18.66876746411922</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>4.64935190784426</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-5.623396405031721</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-21.23675189697454</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-7.218110393590642</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-2.085730914593203</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-20.24968879815645</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>4.07097442470598</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-6.77913055774425</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-22.61157396333322</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-7.253330918822872</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-2.182614029799974</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-21.94406659695147</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>3.451089079589012</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-8.0178071746664</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-24.08261704540688</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-7.403494876500158</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-2.451066167579475</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-23.75708005354086</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>2.78780107319583</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-9.34321251014681</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-25.67270918066819</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-7.493658112274169</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-2.438883359994957</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-25.66740136725765</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>2.088913146500985</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-10.73975485376804</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-27.43864649012135</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-7.498624589037653</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-2.613723201560486</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-27.69687932670086</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1.346431955947498</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-12.22340678470631</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-29.27499704191977</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-7.48556289183031</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-2.967617209163036</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-29.80159914071089</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.5764236560217243</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-13.76206435012118</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-31.1718683845937</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-7.591728943275303</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-3.163459151629702</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-32.00177010815469</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-0.2285052921975859</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-15.37050157854907</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-33.37904661593223</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-7.682397483165022</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-3.540970591109414</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-34.27847571355734</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-1.061434312477725</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-17.03488953207006</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-35.39056307082136</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-7.68453922708496</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-3.897234949318082</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-36.60586404218868</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-1.912905524117091</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-18.73632914206929</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-37.6223105378885</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-7.728289037280114</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-4.34843913250197</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-39.0097485926325</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-2.792362753332992</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-20.49369139299865</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-39.83660753036709</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-7.754423614654737</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-4.918385963088437</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-41.40013181556221</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-3.666880543970573</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-22.24118348468666</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-42.19278840621701</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-7.836010762707565</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-5.524182691319671</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-43.88289496491092</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-4.575195379523904</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-24.05621001574798</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-44.5729837797296</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-7.800636575322116</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-5.929025994771606</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-46.24578846268057</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-5.439656099194115</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-25.78360571583689</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-46.69876269078026</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-7.797880182789301</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-6.448626048796836</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-48.78889037139846</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.370045771128143</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-27.64274295843954</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-49.21496625263921</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-7.769528480061085</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-6.944052499294308</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-39.48582005371744</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-2.966532718357823</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-20.84172391989393</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-39.71728176764859</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.051212607650287</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-21.01093424179683</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-39.95103237169067</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-3.136729883644444</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-21.18181785914843</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-40.15514640931723</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-3.211404670310878</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-21.33103563441284</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-40.32847693196758</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-3.274817358395452</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-21.45774908967563</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-40.45630203871587</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-3.321581964534428</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-21.55119576425865</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-40.52412169444764</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-3.346393674608117</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-21.60077539271128</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-40.51203555722955</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-3.341971981083869</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-21.59193980977836</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-40.40706701597311</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-3.303569412029051</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-21.51520245069631</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-40.19376557188892</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-3.225533427743786</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-21.35926821257616</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-39.86895810697126</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-3.106703148197961</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-21.12181738426538</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-39.4280107828237</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-2.945383291196765</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-20.79946239348091</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-38.89066199748562</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-2.748795117364246</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-20.40663301622919</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-38.27532927764145</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-2.523676648700627</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-19.95679340416621</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-37.61289543291925</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-2.281326310573675</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-19.47252046675003</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-36.92994781160979</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-2.031471040849709</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-18.97325091204963</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-36.25361233200274</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-1.784034812347884</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-18.47881517028067</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-35.60995295470408</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-1.548553082406485</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-18.00826732641166</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-35.01437809789565</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-1.330662995603982</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-17.57287172026054</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-34.48751727278842</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-1.137911824860086</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-17.18770957702616</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-34.03088513337774</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-0.9708537038605148</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-16.85388818605575</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-33.6519497457275</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-0.8322208123544709</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-16.57686708465765</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-33.34180236440938</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-0.7187539004047062</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-16.35013352540563</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-33.09101382689329</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-0.6270033243288786</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-16.16679430942075</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-32.88361522064799</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-0.5511268836079385</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-16.01517534691959</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-32.70144795999968</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-0.4844812893866884</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-15.88200178533592</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-32.53464797931983</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-0.4234577893958575</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-15.76006248943738</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-32.37077090592462</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-0.363503630252249</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-15.64025998788864</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-32.20940035773412</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-0.3044664792532706</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-15.52228988414576</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-32.04769795002866</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-0.2453079179937739</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-15.4040771741662</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-31.89063531719111</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-0.1878468107774711</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-15.28925637633323</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-31.74263452111331</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-0.1337009617115116</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-15.1810602435004</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-31.60928675769816</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-0.08491590066788772</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-15.08357622513173</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-31.49814152954361</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-0.04425360081853734</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-15.0023233927968</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-31.41410117324829</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-0.01350757398619337</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-14.94088560466309</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-31.36209808829868</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.005517669548078238</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-14.9028686964029</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-31.34250148988521</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.01268705301101562</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-14.88854258315753</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-31.35389626066472</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.008518294767010132</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-14.89687274195081</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-31.39184702760744</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-0.005365931218758798</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-14.92461668880826</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-31.4499005440242</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-0.02660471520474307</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-14.96705677115983</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-31.52187996420001</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-0.05293826829351343</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-15.01967739964942</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-31.6020268172856</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-0.08225986334765897</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-15.07826883829292</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-31.68645744052385</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-0.1131486687024614</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-15.13999193147306</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-31.77369562889525</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-0.1450646171671102</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-15.2037674980056</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-31.86265092159937</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-0.1776087654421247</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-15.26879835541085</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-31.95454641253659</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-0.2112285804295614</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-15.33597864773141</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-32.0479328843724</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-0.2453938683390026</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-15.40424892315766</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-32.14361235978831</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-0.2803980478560955</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-15.47419550118846</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-32.24182932005233</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-0.3163305620526944</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-15.54599711010398</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-32.34421953223368</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-0.3537898536344024</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-15.62084957908754</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-32.45321736175055</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-0.393666531206026</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-15.7005325534595</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-32.56920083340027</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-0.4360988945210881</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-15.78532238863329</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-32.69578989740476</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-0.4824112964448292</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-15.87786545290853</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-32.83184380682181</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-0.5321863965750839</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-15.97732780207033</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-32.97906476232415</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-0.5860469422425968</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-16.08495383165556</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-33.13362627186467</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-0.6425930175933586</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-16.19794618075278</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-33.29349449851579</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-0.7010805467154628</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-16.31481801080296</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-33.45716518098503</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-0.7609591980765258</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-16.43446963005488</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-33.6236750175867</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-0.8218765493311274</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-16.55619681582932</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-33.79640272105647</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-0.8850686970049015</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-16.68246957951569</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-33.97497142966368</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-0.9503977668503597</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-16.81301241596164</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-34.16458112618663</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-1.019766164058018</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-16.95162677787768</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-34.36298960349532</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-1.092353580818376</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-17.09667349745591</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-34.57073490631623</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-1.168356859914189</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-17.24854591284207</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-34.78398707276675</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-1.246374816057812</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-17.40444412649789</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-35.00038720642446</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-1.325544450853051</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-17.56264366478933</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-35.21990725032935</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-1.405855499707003</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-17.72312401664716</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-35.44003330561106</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-1.486388256831524</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-17.88404739373972</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-35.66266588002942</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-1.567838019880679</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-18.04680316420208</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-35.88230477468398</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-1.648192550086917</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-18.2073704020216</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-36.0978111862268</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-1.727035218108853</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-18.36491658384995</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-36.30068173257097</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-1.801255075524395</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-18.51322530354485</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-36.48368290644491</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-1.86820575553468</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-18.64700849824214</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-36.63612935097681</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-1.923978037812999</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-18.75845462690888</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-36.74862663987496</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-1.965134986872971</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-18.84069588462861</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-36.81346840131769</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-1.988857239193853</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-18.88809852042581</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-36.82523213887666</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-1.993160983330372</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-18.89669841275931</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-36.78647144838011</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-1.978980448137736</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-18.86836237046225</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-36.70147275843684</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-1.947883816508452</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-18.80622399153838</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-36.58002403754103</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-1.90345200069969</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-18.71743878033239</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-36.42816259407583</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-1.847893740104364</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-18.60642031729176</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-36.25459560927715</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-1.784394542729758</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-18.47953399613441</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-36.06150702128949</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-1.713753398772367</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-18.33837638706698</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-35.85360341084949</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-1.637692203093157</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-18.18638824073453</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-35.63099228900401</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-1.556250288432685</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-18.02364815319743</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-35.39513597231247</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-1.46996264091138</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-17.85122515246704</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-35.14890709437918</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-1.37988020883278</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-17.67121928026791</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-34.89446269333332</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-1.286792141066805</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-17.48520744152309</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-34.6387178341286</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-1.193228302811397</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-17.29824490151564</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-34.38280862821583</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-1.09960433858178</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-17.11116221567977</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-34.13504139461352</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-1.008959101598934</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-16.93003172700071</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-33.89743968954676</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-0.9220329065965956</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-16.75633275831951</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-33.67487938299292</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-0.8406095826274226</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-16.59362981935317</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-33.47021024656979</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-0.7657317139745949</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-16.44400623854772</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-33.28881231018133</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-0.6993675757749361</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-16.3113950922484</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-33.13501065276527</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-0.643099491080533</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-16.1989582338213</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-33.01669815553414</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-0.5998150575675749</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-16.11246576212219</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-32.93487705965554</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-0.5698809435272352</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-16.05265036657827</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-32.90489587903087</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-0.5589123776550011</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-16.0307325939222</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-32.91630836312588</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-0.5630876162864918</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-16.03907570205282</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-33.00573514850853</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-0.5958042593864257</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-16.10445124466131</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-22.35757980992338</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>3.299805947269995</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-8.320106430511764</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-21.54710085564327</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>3.596318346477096</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-7.727604964847951</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-20.71396544063438</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>3.901119574768233</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-7.118540470474173</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-19.96264396221771</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>4.175989308232234</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-6.569286137840715</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-19.27631881572738</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>4.42708024001685</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-6.067547439914066</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-18.68215438683907</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>4.644454324072711</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-5.63318292853163</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-18.1738384184871</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>4.830420889318319</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-5.261578021731331</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-17.7550120807511</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>4.983647819638223</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-4.955394600611394</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-17.4137766949168</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>5.108488227169794</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-4.705934123969202</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-17.13425051192171</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>5.210752423819661</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-4.501586222964033</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-16.90093113443255</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>5.296111936285063</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-4.331017854223492</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-16.6864575230703</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>5.374576756050949</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-4.174226702019894</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-16.47898391008721</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>5.450480637864169</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-4.022552905766624</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-16.2555722371603</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>5.532215432827813</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-3.859227574545432</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-16.00598739375286</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>5.62352563938364</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>-3.676768320365625</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-15.72310928409953</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>5.727016132916544</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>-3.469969989960262</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-15.40867454373065</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>5.842051568159465</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>-3.240102152503997</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-15.07595001873418</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>5.963778291180145</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>-2.996863549352595</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-14.73996445138002</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>6.086698061211226</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>-2.751240957861554</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-14.42673570500572</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>6.201292285524643</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>-2.522254763544319</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-14.15741400724043</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>6.299823187951156</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>-2.325366861868032</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-13.9545472625687</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>6.374041654531057</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>-2.177060921389646</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-13.83715956188519</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>6.41698775274034</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>-2.09124452314935</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-13.8153394406889</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>6.424970608374944</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>-2.075292901307114</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-13.89780562638955</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>6.39480048927879</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>-2.135579890422999</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-14.08159699424183</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>6.327560718094551</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>-2.269940757233613</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-14.36065327950924</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>6.225468432759445</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>-2.473945139025986</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-14.71866282512247</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>6.094491226320923</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>-2.735668382272799</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-15.13422005823382</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>5.942460292578595</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>-3.039461921124615</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-15.58434317181639</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>5.777783488027279</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>-3.368524882128612</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-16.03878024178185</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>5.611528429592367</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>-3.700741565343622</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-16.47414340034556</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>5.452251530432451</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>-4.01901424618596</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-16.86206030136056</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>5.310332766958686</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>-4.302601292084404</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-17.18104528801742</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>5.193632631557044</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>-4.535795591727649</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-17.4118080962968</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>5.109208435753632</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>-4.704494977941418</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-17.54308410449321</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>5.061181322966694</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>-4.800464437545659</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-17.57173083396436</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>5.050700963865363</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>-4.821406658325722</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-17.50030150117653</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>5.076833268383368</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>-4.769188171781837</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-17.34147105159682</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>5.134941128462048</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>-4.653075009717548</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-17.1100641973046</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>5.219600947445379</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>-4.483904793009606</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-16.82859023468642</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>5.322577736083129</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>-4.278132965725569</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-16.51757566648251</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>5.436361906936047</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>-4.050765448616755</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-16.2019789780167</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>5.551822438988894</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>-3.820048167819829</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-15.90015510923373</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>5.662244207497737</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>-3.599399520890959</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-15.63053166199516</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>5.760885504475286</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>-3.402291024954653</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-15.40402303871354</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>5.843753313658546</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>-3.23670166501987</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-15.22568100548437</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>5.908999454687863</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>-3.106324539840099</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-15.09818877715462</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>5.955642277802118</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>-3.013121216364268</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-15.01648842159585</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>5.985532219194023</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>-2.953394088154228</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-14.97812267433659</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>5.999568265049552</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>-2.925346769513375</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-14.97365798690728</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>6.001201663639836</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>-2.922082855217229</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-14.9993981217094</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>5.991784677442001</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>-2.940900207001754</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-15.04957803565326</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>5.973426438036863</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>-2.9775842842398</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-15.11857938154397</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>5.948182408552165</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>-3.028027788487651</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-15.20740362927844</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>5.915686202864866</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>-3.092962845334259</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-15.31336976518018</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>5.876918665441467</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>-3.17042949699862</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-15.43853277956934</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>5.831127981435998</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>-3.261930046248971</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-15.5805086038604</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>5.779186358439336</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>-3.365721617315731</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-15.73869285029201</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>5.721314910724982</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>-3.481362371909916</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-15.91099447332927</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>5.658278643880231</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>-3.607323649061782</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-16.09158587213103</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>5.5922095761369</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>-3.73934517523622</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-16.27893614106774</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>5.523667786814484</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>-3.876307780312259</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-16.46433320086512</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>5.455840575859583</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>-4.011842489856051</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-16.64523932661893</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>5.389656365775843</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>-4.144094097489595</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-16.81486906602657</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>5.327597603184889</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>-4.268102091390521</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-16.97185366929292</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>5.270165042959527</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>-4.382865845625918</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-17.11648064077208</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>5.217253502102264</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>-4.488595540546911</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-17.25090860104062</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>5.168073252807391</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>-4.586869237926332</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-17.3829379867371</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>5.119770518094834</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>-4.683389454919926</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-17.5139432723515</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>5.071842448721531</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>-4.779161002504631</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-17.65288978453</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>5.021009094604276</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>-4.880737991863666</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-17.7993332094537</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>4.967433007226658</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>-4.987795606926838</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-17.95566867460197</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>4.910237933119587</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>-5.102084808079335</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-18.11671554798598</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>4.851319198018918</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>-5.219818289025006</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-18.27817706483411</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>4.792248766285399</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>-5.337854895497771</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-18.4331077579002</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>4.735567625745916</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>-5.451117136587674</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-18.57000572518372</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>4.685483728426377</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>-5.551196535113118</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-18.68190635316948</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>4.644545066784863</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>-5.633001603264652</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-18.7559899253689</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>4.617441713121357</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>-5.687160474235898</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-18.78715444213202</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>4.606040225659205</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>-5.709943325982188</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-18.76857338688744</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>4.612838074315579</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>-5.696359626605592</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-18.70318957149688</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>4.636758636186292</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>-5.648560721717301</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-18.59281513040253</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>4.677138944850936</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>-5.56787137404841</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-18.44462438713458</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>4.731354285785598</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>-5.459536380128597</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-18.26631872145245</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>4.796587121807341</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>-5.329185841481161</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-18.06387264539408</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>4.870651687463395</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>-5.181187431221374</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-17.84794334571584</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>4.949649068417692</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>-5.023332096590557</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-17.62429281739372</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>5.031471248236825</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>-4.859832149889228</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-17.40453941395796</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>5.111867671293286</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>-4.699181200308498</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-17.19241484047637</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>5.189473099394349</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>-4.544107314641978</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-16.99839569551079</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>5.260454686099401</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>-4.402269420947314</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-16.8284260514212</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>5.322637802262052</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>-4.278012939382172</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-16.68786953096536</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>5.374060175273061</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>-4.175258951830866</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-16.58431348559105</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>5.411945985020719</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>-4.099554199303237</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-16.52248245654656</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>5.434566765820274</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>-4.054352562494667</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-16.50461512604369</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>5.441103499447788</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>-4.041290632318011</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-16.5382037154442</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>5.428815168977842</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>-4.065845604836779</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-16.61644501014871</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>5.400190719339283</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>-4.123043983083418</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-16.75883872498538</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>5.348096211770318</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>-4.227141053459514</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-16.93547620955444</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>5.283473677079084</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>-4.356272066603835</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-17.2014368067528</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>5.186172427795089</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>-4.550702832284633</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>